--- a/tigecycline.xlsx
+++ b/tigecycline.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/russelllewis/Desktop/ACUTEWEBSITE/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD8253F2-975D-294B-95A4-4608DF32BB8C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15ADD25E-8DED-4E4C-9A99-E4E16FAA29B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12520" yWindow="7220" windowWidth="27640" windowHeight="16940" xr2:uid="{B216AA04-8970-5148-BB64-D15592C759ED}"/>
+    <workbookView xWindow="17060" yWindow="7420" windowWidth="27640" windowHeight="16940" xr2:uid="{B216AA04-8970-5148-BB64-D15592C759ED}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -425,7 +425,7 @@
   <dimension ref="A1:C85"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -450,7 +450,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="2">
-        <v>0.15</v>
+        <v>2.3940000000000001</v>
       </c>
       <c r="B3" s="2">
         <v>9</v>
@@ -459,7 +459,7 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="2">
-        <v>0.3125</v>
+        <v>4.9874999999999998</v>
       </c>
       <c r="B4" s="2">
         <v>9</v>
@@ -468,7 +468,7 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="2">
-        <v>0.625</v>
+        <v>9.9749999999999996</v>
       </c>
       <c r="B5" s="2">
         <v>9.17</v>
@@ -477,7 +477,7 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="2">
-        <v>1.25</v>
+        <v>19.95</v>
       </c>
       <c r="B6" s="2">
         <v>12</v>
@@ -486,7 +486,7 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="2">
-        <v>2.5</v>
+        <v>39.9</v>
       </c>
       <c r="B7" s="2">
         <v>20</v>
@@ -495,7 +495,7 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" s="2">
-        <v>5</v>
+        <v>79.8</v>
       </c>
       <c r="B8" s="2">
         <v>24</v>
@@ -513,7 +513,7 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" s="2">
-        <v>0.625</v>
+        <v>9.9749999999999996</v>
       </c>
       <c r="B10" s="2">
         <v>10</v>
@@ -522,7 +522,7 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" s="2">
-        <v>1.25</v>
+        <v>19.95</v>
       </c>
       <c r="B11" s="2">
         <v>12.2</v>
@@ -531,7 +531,7 @@
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" s="2">
-        <v>2.5</v>
+        <v>39.9</v>
       </c>
       <c r="B12" s="2">
         <v>19.5</v>
@@ -540,7 +540,7 @@
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" s="2">
-        <v>5</v>
+        <v>79.8</v>
       </c>
       <c r="B13" s="2">
         <v>24</v>
@@ -558,7 +558,7 @@
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" s="2">
-        <v>0.625</v>
+        <v>9.9749999999999996</v>
       </c>
       <c r="B15" s="2">
         <v>10</v>
@@ -567,7 +567,7 @@
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" s="2">
-        <v>1.25</v>
+        <v>19.95</v>
       </c>
       <c r="B16" s="2">
         <v>12.6</v>
@@ -576,7 +576,7 @@
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" s="2">
-        <v>2.5</v>
+        <v>39.9</v>
       </c>
       <c r="B17" s="2">
         <v>21</v>
@@ -585,7 +585,7 @@
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" s="2">
-        <v>3.75</v>
+        <v>59.85</v>
       </c>
       <c r="B18" s="2">
         <v>24</v>
@@ -594,7 +594,7 @@
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" s="2">
-        <v>5</v>
+        <v>79.8</v>
       </c>
       <c r="B19" s="2">
         <v>24</v>
@@ -612,7 +612,7 @@
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" s="2">
-        <v>1.25</v>
+        <v>19.95</v>
       </c>
       <c r="B21" s="2">
         <v>13</v>
@@ -621,7 +621,7 @@
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" s="2">
-        <v>2.5</v>
+        <v>39.9</v>
       </c>
       <c r="B22" s="2">
         <v>22.5</v>
@@ -630,7 +630,7 @@
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23" s="2">
-        <v>5</v>
+        <v>79.8</v>
       </c>
       <c r="B23" s="2">
         <v>24</v>
